--- a/biology/Médecine/Claude_Hamonet/Claude_Hamonet.xlsx
+++ b/biology/Médecine/Claude_Hamonet/Claude_Hamonet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Hamonet est un médecin anthropologue français, professeur de médecine physique et de réadaptation, spécialiste du Syndrome d'Ehlers-Danlos
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Hamonet est le petit-fils du peintre Léon Hamonet[1]. Il soutient en 1992 sa thèse pour l’obtention du doctorat en anthropologie sociale : Handicapologie et anthropologie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Hamonet est le petit-fils du peintre Léon Hamonet. Il soutient en 1992 sa thèse pour l’obtention du doctorat en anthropologie sociale : Handicapologie et anthropologie.
 Professeur émérite des Universités, ex-Expert agréé par la Cour de Cassation, Professeur émérite à la Faculté de Médecine de Créteil, ex-praticien attaché à l’Hôpital Raymond Poincaré, ex-médecin à l’Hôtel-Dieu de Paris (Consultation du Syndrome d'Ehlers-Danlos). Il consulte au centre de santé Ellasanté, à Paris dans le cadre du Syndrome d'Ehlers-Danlos.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publications (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>avec Jean-Noël Heuleu : Abrégé de rééducation fonctionnelle et de réadaptation, 2e édition revue et corrigée, Paris, Masson, 1978, 242 p.  (ISBN 2-225-48543-7).
 Les personnes handicapées, Paris, Presses universitaires de France (collection : Que sais-je ?), 1990, 125 p.  (ISBN 2-13-043354-5) ; 7e édition mise à jour sous le titre Les personnes en situation de handicap, 2012, 127 p.  (ISBN 978-2-13-059505-2).
